--- a/Question_Sets/Situational judgment/Account Management.xlsx
+++ b/Question_Sets/Situational judgment/Account Management.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'One of your top clients has stated they have formed a great relationship with a competing vendor over the last year, and this relationship has resulted in a 10% increase in profit for them.  Considering the competing vendor is positioning the same types of products your company is attempting to sell, what should be your next step with your client?', 'ques_type': 2, 'options': ['Send your client negative stories and feedback you have heard from other clients about the competing vendor.', 'Send your client information proving your solution is superior to the competing vendor’s.', 'Ask the client why the relationship with the competing vendor is working so well and how your company can improve.', 'Deprioritize the client to focus your resources on clients who don’t buy from competing vendors.'], 'score': 'Ask the client why the relationship with the competing vendor is working so well and how your company can improve.'}, {'title': 'One of your clients has a large order due to be shipped in 30 days that they will then send to one of their customers. However, only 50% of the units are ready to order with their preferred distribution partner, but all of the units are available through other distribution partners. In the past, the client has stated that they do not wish to work with other distribution partners. What should you do next to manage this situation?', 'ques_type': 2, 'options': ['Promise the client that you will do whatever it takes to get the units available in the next 30 days from their preferred distribution partner.', 'Assess the client’s willingness to use an alternative distribution partner for part of this order to avoid delays.', 'Place an order for the remaining units with other distribution partners so both you and the client can deliver on time.', 'Advise the client to tell their customers to expect delays due to the supply chain shortage with their preferred distribution partner.'], 'score': 'Assess the client’s willingness to use an alternative distribution partner for part of this order to avoid delays.'}, {'title': 'You have delivered a forecast for your client set (20 clients) to your sales manager that is $100k under your quota. One of your clients has experienced a significant year-over-year (YoY) decline and is $50k short of their individual target. Which action will help you bridge this gap?', 'ques_type': 2, 'options': ['Discuss the importance of hitting targets to maintain a good business relationship with the client in YoY decline.', 'Ask all your clients to stop using competitor solutions.', 'Assess the potential for growth in your key clients.', 'Suggest launching a marketing campaign with the client in YoY decline to give them a sales boost.'], 'score': 'Assess the potential for growth in your key clients.'}, {'title': 'Your company has a partner loyalty program for high-performing clients who make over $250k per year in revenue. The benefits include: higher margin for sales, individual incentives for salespeople, advanced marketing support, and “Prestige Status” they can use to attend exclusive events. One of your clients reached $125k in revenue in six months and has mentioned that increasing profits is a key goal.  What is the best way to convince this client to work towards achieving partner status?', 'ques_type': 2, 'options': ['Highlight the benefits of the partner loyalty program for motivating individual salespeople.', 'Highlight the advanced marketing support companies in the partner loyalty program get.', 'Highlight the “Prestige Status” and exclusive events that partners enjoy.', 'Highlight the increased margins offered to partners on their shipped revenue.'], 'score': 'Highlight the increased margins offered to partners on their shipped revenue.'}]</t>
+    <t>questions = [
+    {
+        "title": "One of your top clients has stated they have formed a great relationship with a competing vendor over the last year, and this relationship has resulted in a 10% increase in profit for them.  Considering the competing vendor is positioning the same types of products your company is attempting to sell, what should be your next step with your client?",
+        "ques_type": 2,
+        "options": [
+            "Send your client negative stories and feedback you have heard from other clients about the competing vendor.",
+            "Send your client information proving your solution is superior to the competing vendor\u2019s.",
+            "Ask the client why the relationship with the competing vendor is working so well and how your company can improve.",
+            "Deprioritize the client to focus your resources on clients who don\u2019t buy from competing vendors."
+        ],
+        "score": "Ask the client why the relationship with the competing vendor is working so well and how your company can improve."
+    },
+    {
+        "title": "One of your clients has a large order due to be shipped in 30 days that they will then send to one of their customers. However, only 50% of the units are ready to order with their preferred distribution partner, but all of the units are available through other distribution partners. In the past, the client has stated that they do not wish to work with other distribution partners. What should you do next to manage this situation?",
+        "ques_type": 2,
+        "options": [
+            "Promise the client that you will do whatever it takes to get the units available in the next 30 days from their preferred distribution partner.",
+            "Assess the client\u2019s willingness to use an alternative distribution partner for part of this order to avoid delays.",
+            "Place an order for the remaining units with other distribution partners so both you and the client can deliver on time.",
+            "Advise the client to tell their customers to expect delays due to the supply chain shortage with their preferred distribution partner."
+        ],
+        "score": "Assess the client\u2019s willingness to use an alternative distribution partner for part of this order to avoid delays."
+    },
+    {
+        "title": "You have delivered a forecast for your client set (20 clients) to your sales manager that is $100k under your quota. One of your clients has experienced a significant year-over-year (YoY) decline and is $50k short of their individual target. Which action will help you bridge this gap?",
+        "ques_type": 2,
+        "options": [
+            "Discuss the importance of hitting targets to maintain a good business relationship with the client in YoY decline.",
+            "Ask all your clients to stop using competitor solutions.",
+            "Assess the potential for growth in your key clients.",
+            "Suggest launching a marketing campaign with the client in YoY decline to give them a sales boost."
+        ],
+        "score": "Assess the potential for growth in your key clients."
+    },
+    {
+        "title": "Your company has a partner loyalty program for high-performing clients who make over $250k per year in revenue. The benefits include: higher margin for sales, individual incentives for salespeople, advanced marketing support, and \u201cPrestige Status\u201d they can use to attend exclusive events. One of your clients reached $125k in revenue in six months and has mentioned that increasing profits is a key goal.  What is the best way to convince this client to work towards achieving partner status?",
+        "ques_type": 2,
+        "options": [
+            "Highlight the benefits of the partner loyalty program for motivating individual salespeople.",
+            "Highlight the advanced marketing support companies in the partner loyalty program get.",
+            "Highlight the \u201cPrestige Status\u201d and exclusive events that partners enjoy.",
+            "Highlight the increased margins offered to partners on their shipped revenue."
+        ],
+        "score": "Highlight the increased margins offered to partners on their shipped revenue."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
